--- a/artfynd/A 34322-2021 artfynd.xlsx
+++ b/artfynd/A 34322-2021 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131236290</v>
       </c>
       <c r="B2" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>131236167</v>
       </c>
       <c r="B3" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -894,10 +894,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131235752</v>
+        <v>131236495</v>
       </c>
       <c r="B4" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>504836</v>
+        <v>504860</v>
       </c>
       <c r="R4" t="n">
-        <v>6699938</v>
+        <v>6700261</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -964,7 +964,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1001,10 +1001,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131236495</v>
+        <v>131235752</v>
       </c>
       <c r="B5" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1036,10 +1036,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>504860</v>
+        <v>504836</v>
       </c>
       <c r="R5" t="n">
-        <v>6700261</v>
+        <v>6699938</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1111,7 +1111,7 @@
         <v>131236489</v>
       </c>
       <c r="B6" t="n">
-        <v>91829</v>
+        <v>91830</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>

--- a/artfynd/A 34322-2021 artfynd.xlsx
+++ b/artfynd/A 34322-2021 artfynd.xlsx
@@ -894,7 +894,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131236495</v>
+        <v>131235752</v>
       </c>
       <c r="B4" t="n">
         <v>79245</v>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>504860</v>
+        <v>504836</v>
       </c>
       <c r="R4" t="n">
-        <v>6700261</v>
+        <v>6699938</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -964,7 +964,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:52</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1001,7 +1001,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131235752</v>
+        <v>131236495</v>
       </c>
       <c r="B5" t="n">
         <v>79245</v>
@@ -1036,10 +1036,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>504836</v>
+        <v>504860</v>
       </c>
       <c r="R5" t="n">
-        <v>6699938</v>
+        <v>6700261</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:52</t>
         </is>
       </c>
       <c r="AD5" t="b">

--- a/artfynd/A 34322-2021 artfynd.xlsx
+++ b/artfynd/A 34322-2021 artfynd.xlsx
@@ -1111,7 +1111,7 @@
         <v>131236489</v>
       </c>
       <c r="B6" t="n">
-        <v>91830</v>
+        <v>91833</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
